--- a/data/testcase_data.xlsx
+++ b/data/testcase_data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="9480"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="testcase_data" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="reginst" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -110,6 +111,75 @@
   </si>
   <si>
     <t>{"username": '',"password": ''}</t>
+  </si>
+  <si>
+    <t>reg1</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>{"username": '',"password": '',"yanzhengma": ''}</t>
+  </si>
+  <si>
+    <t>{"suc": 1,"assert": '立即注册'}</t>
+  </si>
+  <si>
+    <t>reg2</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": '',"yanzhengma": ''}</t>
+  </si>
+  <si>
+    <t>reg3</t>
+  </si>
+  <si>
+    <t>{"username": '15964',"password": 'li123235',"yanzhengma": '11'}</t>
+  </si>
+  <si>
+    <t>reg4</t>
+  </si>
+  <si>
+    <t>{"username": '15964636199',"password": 'li123235',"yanzhengma": '11'}</t>
+  </si>
+  <si>
+    <t>reg5</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": '32',"yanzhengma": ''}</t>
+  </si>
+  <si>
+    <t>reg6</t>
+  </si>
+  <si>
+    <t>reg7</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": 'li123235',"yanzhengma": '11'}</t>
+  </si>
+  <si>
+    <t>reg8</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": 'li123235',"yanzhengma": ''}</t>
+  </si>
+  <si>
+    <t>reg9</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": '56563265565652',"yanzhengma": ''}</t>
+  </si>
+  <si>
+    <t>reg10</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": '33256563265565652',"yanzhengma": ''}</t>
+  </si>
+  <si>
+    <t>reg11</t>
+  </si>
+  <si>
+    <t>{"username": 'li',"password": 'li3325656326225565652',"yanzhengma": ''}</t>
   </si>
 </sst>
 </file>
@@ -117,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,15 +202,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,9 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,31 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,9 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +298,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -255,21 +323,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,169 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,16 +567,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +598,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,39 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,145 +653,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,11 +799,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1056,12 +1126,13 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="65.5" customWidth="1"/>
     <col min="5" max="5" width="36.75" customWidth="1"/>
   </cols>
@@ -1096,7 +1167,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1113,7 +1184,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1130,7 +1201,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1147,7 +1218,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1161,7 +1232,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
@@ -1212,10 +1283,10 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1232,7 +1303,7 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1249,7 +1320,7 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1266,8 +1337,233 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="77.25" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/testcase_data.xlsx
+++ b/data/testcase_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="21060" windowHeight="5220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -59,60 +59,6 @@
     <t>{"username": 'leizi',"password": ''}</t>
   </si>
   <si>
-    <t>login4</t>
-  </si>
-  <si>
-    <t>{"username": 'lei zi',"password": '12'}</t>
-  </si>
-  <si>
-    <t>login5</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>{"username": '15964636199',"password": 'li930423'}</t>
-  </si>
-  <si>
-    <t>{"suc": 0,"assert": 'Lipzig'}</t>
-  </si>
-  <si>
-    <t>login6</t>
-  </si>
-  <si>
-    <t>{"username": '111270002',"password": 'li930423'}</t>
-  </si>
-  <si>
-    <t>login7</t>
-  </si>
-  <si>
-    <t>{"username": 'leiziasd',"password": 'li930423'}</t>
-  </si>
-  <si>
-    <t>login8</t>
-  </si>
-  <si>
-    <t>{"username":'15964636199',"password": 'li93042'}</t>
-  </si>
-  <si>
-    <t>login9</t>
-  </si>
-  <si>
-    <t>{"username": '111270002',"password": 'li90423'}</t>
-  </si>
-  <si>
-    <t>login10</t>
-  </si>
-  <si>
-    <t>{"username": 'leiziasd',"password": 'li93423'}</t>
-  </si>
-  <si>
-    <t>login11</t>
-  </si>
-  <si>
-    <t>{"username": '',"password": ''}</t>
-  </si>
-  <si>
     <t>reg1</t>
   </si>
   <si>
@@ -135,51 +81,6 @@
   </si>
   <si>
     <t>{"username": '15964',"password": 'li123235',"yanzhengma": '11'}</t>
-  </si>
-  <si>
-    <t>reg4</t>
-  </si>
-  <si>
-    <t>{"username": '15964636199',"password": 'li123235',"yanzhengma": '11'}</t>
-  </si>
-  <si>
-    <t>reg5</t>
-  </si>
-  <si>
-    <t>{"username": 'li',"password": '32',"yanzhengma": ''}</t>
-  </si>
-  <si>
-    <t>reg6</t>
-  </si>
-  <si>
-    <t>reg7</t>
-  </si>
-  <si>
-    <t>{"username": 'li',"password": 'li123235',"yanzhengma": '11'}</t>
-  </si>
-  <si>
-    <t>reg8</t>
-  </si>
-  <si>
-    <t>{"username": 'li',"password": 'li123235',"yanzhengma": ''}</t>
-  </si>
-  <si>
-    <t>reg9</t>
-  </si>
-  <si>
-    <t>{"username": 'li',"password": '56563265565652',"yanzhengma": ''}</t>
-  </si>
-  <si>
-    <t>reg10</t>
-  </si>
-  <si>
-    <t>{"username": 'li',"password": '33256563265565652',"yanzhengma": ''}</t>
-  </si>
-  <si>
-    <t>reg11</t>
-  </si>
-  <si>
-    <t>{"username": 'li',"password": 'li3325656326225565652',"yanzhengma": ''}</t>
   </si>
 </sst>
 </file>
@@ -187,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,14 +103,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -252,9 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,8 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,22 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -323,23 +226,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,43 +255,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,30 +429,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,102 +436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,11 +449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +505,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -606,42 +524,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A5" sqref="$A5:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="65.5" customWidth="1"/>
@@ -1202,142 +1103,6 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1350,13 +1115,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="$A5:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="77.25" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
@@ -1381,189 +1146,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
